--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89467.15877329715</v>
+        <v>16094551.70893638</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89467.15877329715</v>
+        <v>16094551.70893638</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3975.491660300573</v>
+        <v>385364.6969142433</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3975.491660300573</v>
+        <v>385364.6969142433</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036174160.453862</v>
+        <v>42839180.02831997</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8576.22426378801</v>
+        <v>1022786.605249614</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16047.09511690777</v>
+        <v>1869626.875743026</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23460.37779080613</v>
+        <v>2716467.146236439</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31170.60778596473</v>
+        <v>3565608.542009266</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38837.32502172962</v>
+        <v>4414257.063392621</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46455.12514888977</v>
+        <v>5262905.584775975</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54179.67664823197</v>
+        <v>6111554.106159327</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61818.33880628314</v>
+        <v>6960202.627542677</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69458.63274823739</v>
+        <v>7808392.048905208</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>77047.08136588626</v>
+        <v>8656696.349581396</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84584.99128676701</v>
+        <v>9505000.650257591</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>92025.67933613669</v>
+        <v>10351094.07719816</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99365.1100334612</v>
+        <v>11197662.50251435</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107086.231267323</v>
+        <v>12003316.96497887</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114741.3756489864</v>
+        <v>12815982.41205023</v>
       </c>
     </row>
   </sheetData>
@@ -27040,25 +27040,25 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>361</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>375</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
